--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3476.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3476.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.108671508658868</v>
+        <v>0.7708309292793274</v>
       </c>
       <c r="B1">
-        <v>1.890171697679043</v>
+        <v>1.203548312187195</v>
       </c>
       <c r="C1">
-        <v>6.166618304955422</v>
+        <v>4.399590492248535</v>
       </c>
       <c r="D1">
-        <v>4.624278654723649</v>
+        <v>4.038678646087646</v>
       </c>
       <c r="E1">
-        <v>1.564727750615496</v>
+        <v>1.416980504989624</v>
       </c>
     </row>
   </sheetData>
